--- a/taller_io/solution/ejercicio_2/bebidas.xlsx
+++ b/taller_io/solution/ejercicio_2/bebidas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yurley.sanchez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yurley.sanchez/Dev/dp4_proyecto/taller_io/solution/ejercicio_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A1E784-179D-434E-AF52-83D40B17BBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB6B54-A626-EF43-8305-DC9498246578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15180" xr2:uid="{4288C121-9F1B-4440-A68B-6BAC49A9716E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>JUGOS NATURALES EN AGUA</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>GASEOSA 2,5 L</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>valor</t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4292A662-6591-F642-AFA3-2F2FA7A20050}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C38"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,42 +583,42 @@
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>5500</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -619,41 +628,41 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>5500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -664,40 +673,40 @@
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>13000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>8500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -708,7 +717,7 @@
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -719,62 +728,62 @@
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>24000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>65000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>58000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>4500</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -785,7 +794,7 @@
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -796,7 +805,7 @@
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
@@ -807,62 +816,62 @@
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="3">
-        <v>7000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>9500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3">
-        <v>1700</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>3500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -873,7 +882,7 @@
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -884,51 +893,51 @@
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>6500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>3500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -939,40 +948,40 @@
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -983,12 +992,23 @@
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
         <v>10000</v>
       </c>
     </row>
